--- a/Linea Base/WS/Linea Base 1 Fin del Inception/WS-CP.xlsx
+++ b/Linea Base/WS/Linea Base 1 Fin del Inception/WS-CP.xlsx
@@ -37,7 +37,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi1TCYNd2k+VlTk4FCJILwrQksGLg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhhgGan0Lekrt6+MguyHY96Egk5NQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,24 +710,24 @@
     <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -771,9 +771,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1313,7 +1310,7 @@
         <v>44708.0</v>
       </c>
       <c r="H13" s="21">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1336,8 +1333,8 @@
       <c r="G14" s="20">
         <v>44708.0</v>
       </c>
-      <c r="H14" s="26">
-        <v>0.0</v>
+      <c r="H14" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1360,27 +1357,27 @@
       <c r="G15" s="20">
         <v>44708.0</v>
       </c>
-      <c r="H15" s="26">
-        <v>0.0</v>
+      <c r="H15" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29">
         <v>44690.0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>44708.0</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <f>AVERAGE(H10:H15)</f>
-        <v>0.5833333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1401,7 +1398,7 @@
       <c r="G17" s="20">
         <v>44711.0</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1421,7 +1418,7 @@
       <c r="G18" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1445,7 +1442,7 @@
       <c r="G19" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1469,7 +1466,7 @@
       <c r="G20" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1493,7 +1490,7 @@
       <c r="G21" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1517,7 +1514,7 @@
       <c r="G22" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1541,7 +1538,7 @@
       <c r="G23" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1565,7 +1562,7 @@
       <c r="G24" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1589,7 +1586,7 @@
       <c r="G25" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1613,7 +1610,7 @@
       <c r="G26" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1633,7 +1630,7 @@
       <c r="G27" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1653,7 +1650,7 @@
       <c r="G28" s="20">
         <v>44715.0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1673,7 +1670,7 @@
       <c r="G29" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1693,7 +1690,7 @@
       <c r="G30" s="20">
         <v>44722.0</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1717,25 +1714,25 @@
       <c r="G31" s="20">
         <v>44722.0</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="31">
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <v>44711.0</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>44722.0</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <f>AVERAGE(H17:H31)</f>
         <v>0</v>
       </c>
@@ -1760,7 +1757,7 @@
       <c r="G33" s="20">
         <v>44725.0</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1782,7 +1779,7 @@
       <c r="G34" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1806,7 +1803,7 @@
       <c r="G35" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1826,7 +1823,7 @@
       <c r="G36" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1846,7 +1843,7 @@
       <c r="G37" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1866,7 +1863,7 @@
       <c r="G38" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1886,7 +1883,7 @@
       <c r="G39" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1908,7 +1905,7 @@
       <c r="G40" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1930,7 +1927,7 @@
       <c r="G41" s="20">
         <v>44729.0</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1950,7 +1947,7 @@
       <c r="G42" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1972,7 +1969,7 @@
       <c r="G43" s="20">
         <v>44736.0</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1996,22 +1993,22 @@
       <c r="G44" s="20">
         <v>44736.0</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="31">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="41"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>44725.0</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="29">
         <v>44736.0</v>
       </c>
       <c r="H45" s="43">
@@ -2037,7 +2034,7 @@
       <c r="G46" s="20">
         <v>44739.0</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2057,7 +2054,7 @@
       <c r="G47" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2077,7 +2074,7 @@
       <c r="G48" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2097,7 +2094,7 @@
       <c r="G49" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2117,7 +2114,7 @@
       <c r="G50" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2137,7 +2134,7 @@
       <c r="G51" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2157,7 +2154,7 @@
       <c r="G52" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2177,7 +2174,7 @@
       <c r="G53" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2197,7 +2194,7 @@
       <c r="G54" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2217,7 +2214,7 @@
       <c r="G55" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2237,7 +2234,7 @@
       <c r="G56" s="20">
         <v>44750.0</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2261,22 +2258,22 @@
       <c r="G57" s="20">
         <v>44750.0</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="31">
         <v>0.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="45"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30">
+      <c r="E58" s="28"/>
+      <c r="F58" s="29">
         <v>44739.0</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="29">
         <v>44750.0</v>
       </c>
       <c r="H58" s="43">
@@ -2300,7 +2297,7 @@
       <c r="G59" s="20">
         <v>44755.0</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2320,7 +2317,7 @@
       <c r="G60" s="20">
         <v>44755.0</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2344,23 +2341,23 @@
       <c r="G61" s="20">
         <v>44757.0</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="31">
         <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C62" s="45"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="47">
-        <v>44774.0</v>
-      </c>
-      <c r="G62" s="47">
-        <v>44786.0</v>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29">
+        <v>44753.0</v>
+      </c>
+      <c r="G62" s="29">
+        <v>44757.0</v>
       </c>
       <c r="H62" s="43">
         <f>AVERAGE(H59:H61)</f>
@@ -2368,211 +2365,211 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="55"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="60"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="60"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="55"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="62"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="62"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="60"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="59"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="62"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="60"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="62"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="60"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="59"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="50"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="66"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="65"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="62"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="59"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="55"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="60"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="55"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="60"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="59"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="60"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="59"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="62"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="60"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="62"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="60"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="62"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="60"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="59"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="62"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="60"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="59"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="62"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="60"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="62"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="60"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="62"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="60"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="62"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="60"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="66"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="65"/>
     </row>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
@@ -3528,72 +3525,72 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="74" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Linea Base/WS/Linea Base 1 Fin del Inception/WS-CP.xlsx
+++ b/Linea Base/WS/Linea Base 1 Fin del Inception/WS-CP.xlsx
@@ -725,32 +725,32 @@
     <xf borderId="4" fillId="2" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1088,9 +1088,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.5"/>
     <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="49.75"/>
-    <col customWidth="1" min="4" max="4" width="21.88"/>
-    <col customWidth="1" min="5" max="5" width="63.63"/>
+    <col customWidth="1" min="3" max="3" width="38.38"/>
+    <col customWidth="1" min="4" max="5" width="17.75"/>
     <col customWidth="1" min="6" max="6" width="13.75"/>
     <col customWidth="1" min="7" max="7" width="13.0"/>
     <col customWidth="1" min="8" max="8" width="14.75"/>
@@ -1398,8 +1397,8 @@
       <c r="G17" s="20">
         <v>44711.0</v>
       </c>
-      <c r="H17" s="31">
-        <v>0.0</v>
+      <c r="H17" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1407,7 +1406,7 @@
       <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
         <v>19</v>
@@ -1418,8 +1417,8 @@
       <c r="G18" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H18" s="31">
-        <v>0.0</v>
+      <c r="H18" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1427,13 +1426,13 @@
       <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="20">
@@ -1442,8 +1441,8 @@
       <c r="G19" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H19" s="31">
-        <v>0.0</v>
+      <c r="H19" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1457,7 +1456,7 @@
       <c r="D20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="20">
@@ -1466,8 +1465,8 @@
       <c r="G20" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H20" s="31">
-        <v>0.0</v>
+      <c r="H20" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1475,13 +1474,13 @@
       <c r="B21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="20">
@@ -1490,8 +1489,8 @@
       <c r="G21" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H21" s="31">
-        <v>0.0</v>
+      <c r="H21" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1499,13 +1498,13 @@
       <c r="B22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="20">
@@ -1514,8 +1513,8 @@
       <c r="G22" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H22" s="31">
-        <v>0.0</v>
+      <c r="H22" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1523,13 +1522,13 @@
       <c r="B23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="20">
@@ -1538,8 +1537,8 @@
       <c r="G23" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H23" s="31">
-        <v>0.0</v>
+      <c r="H23" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1547,13 +1546,13 @@
       <c r="B24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="20">
@@ -1562,8 +1561,8 @@
       <c r="G24" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H24" s="31">
-        <v>0.0</v>
+      <c r="H24" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1571,13 +1570,13 @@
       <c r="B25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="20">
@@ -1586,8 +1585,8 @@
       <c r="G25" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H25" s="31">
-        <v>0.0</v>
+      <c r="H25" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1595,13 +1594,13 @@
       <c r="B26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="20">
@@ -1610,8 +1609,8 @@
       <c r="G26" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H26" s="31">
-        <v>0.0</v>
+      <c r="H26" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1619,9 +1618,9 @@
       <c r="B27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="20">
@@ -1630,8 +1629,8 @@
       <c r="G27" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H27" s="31">
-        <v>0.0</v>
+      <c r="H27" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1639,9 +1638,9 @@
       <c r="B28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="20">
@@ -1650,8 +1649,8 @@
       <c r="G28" s="20">
         <v>44715.0</v>
       </c>
-      <c r="H28" s="31">
-        <v>0.0</v>
+      <c r="H28" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1659,9 +1658,9 @@
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="20">
@@ -1670,8 +1669,8 @@
       <c r="G29" s="20">
         <v>44721.0</v>
       </c>
-      <c r="H29" s="31">
-        <v>0.0</v>
+      <c r="H29" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1679,9 +1678,9 @@
       <c r="B30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="20">
@@ -1690,8 +1689,8 @@
       <c r="G30" s="20">
         <v>44722.0</v>
       </c>
-      <c r="H30" s="31">
-        <v>0.0</v>
+      <c r="H30" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1699,13 +1698,13 @@
       <c r="B31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="20">
@@ -1714,8 +1713,8 @@
       <c r="G31" s="20">
         <v>44722.0</v>
       </c>
-      <c r="H31" s="31">
-        <v>0.0</v>
+      <c r="H31" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1725,7 +1724,7 @@
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="29">
         <v>44711.0</v>
       </c>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="H32" s="30">
         <f>AVERAGE(H17:H31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1757,7 +1756,7 @@
       <c r="G33" s="20">
         <v>44725.0</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1766,7 +1765,7 @@
       <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
@@ -1779,7 +1778,7 @@
       <c r="G34" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1788,13 +1787,13 @@
       <c r="B35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="20">
@@ -1803,7 +1802,7 @@
       <c r="G35" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1812,9 +1811,9 @@
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="20">
@@ -1823,7 +1822,7 @@
       <c r="G36" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1832,9 +1831,9 @@
       <c r="B37" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="20">
@@ -1843,7 +1842,7 @@
       <c r="G37" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1852,9 +1851,9 @@
       <c r="B38" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="20">
@@ -1863,7 +1862,7 @@
       <c r="G38" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1872,9 +1871,9 @@
       <c r="B39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="20">
@@ -1883,7 +1882,7 @@
       <c r="G39" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1892,11 +1891,11 @@
       <c r="B40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="20">
@@ -1905,7 +1904,7 @@
       <c r="G40" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1914,7 +1913,7 @@
       <c r="B41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="18" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="G41" s="20">
         <v>44729.0</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1936,7 +1935,7 @@
       <c r="B42" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="18"/>
       <c r="E42" s="24" t="s">
         <v>63</v>
@@ -1947,7 +1946,7 @@
       <c r="G42" s="20">
         <v>44735.0</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1956,7 +1955,7 @@
       <c r="B43" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="18" t="s">
         <v>45</v>
       </c>
@@ -1969,7 +1968,7 @@
       <c r="G43" s="20">
         <v>44736.0</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -1978,13 +1977,13 @@
       <c r="B44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="37" t="s">
         <v>69</v>
       </c>
       <c r="F44" s="20">
@@ -1993,7 +1992,7 @@
       <c r="G44" s="20">
         <v>44736.0</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2034,7 +2033,7 @@
       <c r="G46" s="20">
         <v>44739.0</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2043,7 +2042,7 @@
       <c r="B47" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
         <v>19</v>
@@ -2054,7 +2053,7 @@
       <c r="G47" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H47" s="31">
+      <c r="H47" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2063,9 +2062,9 @@
       <c r="B48" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>81</v>
       </c>
       <c r="F48" s="20">
@@ -2074,7 +2073,7 @@
       <c r="G48" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2083,9 +2082,9 @@
       <c r="B49" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="20">
@@ -2094,7 +2093,7 @@
       <c r="G49" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2103,9 +2102,9 @@
       <c r="B50" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="20">
@@ -2114,7 +2113,7 @@
       <c r="G50" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2123,9 +2122,9 @@
       <c r="B51" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="20">
@@ -2134,7 +2133,7 @@
       <c r="G51" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2143,9 +2142,9 @@
       <c r="B52" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="20">
@@ -2154,7 +2153,7 @@
       <c r="G52" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2163,9 +2162,9 @@
       <c r="B53" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="20">
@@ -2174,7 +2173,7 @@
       <c r="G53" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2183,9 +2182,9 @@
       <c r="B54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F54" s="20">
@@ -2194,7 +2193,7 @@
       <c r="G54" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2203,7 +2202,7 @@
       <c r="B55" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="18"/>
       <c r="E55" s="24" t="s">
         <v>63</v>
@@ -2214,7 +2213,7 @@
       <c r="G55" s="20">
         <v>44749.0</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2223,9 +2222,9 @@
       <c r="B56" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F56" s="20">
@@ -2234,7 +2233,7 @@
       <c r="G56" s="20">
         <v>44750.0</v>
       </c>
-      <c r="H56" s="31">
+      <c r="H56" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2243,13 +2242,13 @@
       <c r="B57" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="37" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="20">
@@ -2258,7 +2257,7 @@
       <c r="G57" s="20">
         <v>44750.0</v>
       </c>
-      <c r="H57" s="31">
+      <c r="H57" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2286,9 +2285,9 @@
       <c r="B59" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="33" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="20">
@@ -2297,7 +2296,7 @@
       <c r="G59" s="20">
         <v>44755.0</v>
       </c>
-      <c r="H59" s="31">
+      <c r="H59" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2306,9 +2305,9 @@
       <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="33" t="s">
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F60" s="20">
@@ -2317,7 +2316,7 @@
       <c r="G60" s="20">
         <v>44755.0</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2326,10 +2325,10 @@
       <c r="B61" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="36" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -2341,7 +2340,7 @@
       <c r="G61" s="20">
         <v>44757.0</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="39">
         <v>0.0</v>
       </c>
     </row>
